--- a/reportes/base/oComprobanteVenta.xlsx
+++ b/reportes/base/oComprobanteVenta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uemar\Desktop\calera\report_sa_services\reportes\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1084950C-B821-46A7-B254-1B3F85A76A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403622D8-AC3C-47FF-B958-42EBE59B41C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="21580" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Fecha:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Cliente:</t>
   </si>
@@ -43,16 +40,34 @@
     <t>Agente:</t>
   </si>
   <si>
-    <t>Cantidad del Pago:</t>
-  </si>
-  <si>
-    <t>Tipo de pago:</t>
-  </si>
-  <si>
     <t>Comprobante de venta</t>
   </si>
   <si>
     <t>Venta No:</t>
+  </si>
+  <si>
+    <t>Fecha comprobante:</t>
+  </si>
+  <si>
+    <t>Fecha de venta:</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Total Venta:</t>
+  </si>
+  <si>
+    <t>Cod. Producto</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Precio Unitario</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -62,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +106,13 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,9 +121,9 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aparajita"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -113,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -145,25 +167,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -175,29 +184,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -207,20 +204,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -537,154 +540,373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3">
+        <f ca="1">TODAY()</f>
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="5.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="F4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <f ca="1">TODAY()</f>
-        <v>44785</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="F5" s="2" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="14"/>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.5">
+      <c r="A10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="D10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.5">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
+  <mergeCells count="1">
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reportes/base/oComprobanteVenta.xlsx
+++ b/reportes/base/oComprobanteVenta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uemar\Desktop\calera\report_sa_services\reportes\base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdaniel\Desktop\calera_project\report_sa_services\reportes\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403622D8-AC3C-47FF-B958-42EBE59B41C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9C6AEF-0F62-4058-A6E9-F8CE1FDDF89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -170,10 +170,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -193,8 +192,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -207,27 +204,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -244,7 +238,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -532,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -543,367 +537,253 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="2" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f ca="1">TODAY()</f>
-        <v>44788</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="5.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="7" t="s">
+        <v>44944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="5.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="14"/>
-      <c r="D8" s="7" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="17.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="11"/>
+      <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.5">
-      <c r="A10" s="13" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="8"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -917,4 +797,10 @@
 Tel. 01 (734) 3 41 02 12 y Fax 3 41 00 95</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>